--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/WISCONSIN_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/WISCONSIN_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1219"/>
+  <dimension ref="A1:D1213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C26">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C30">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C32">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C42">
@@ -1226,7 +1226,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C65">
@@ -1278,7 +1278,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C69">
@@ -1356,7 +1356,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C75">
@@ -1369,7 +1369,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C76">
@@ -1777,7 +1777,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C107">
@@ -1803,7 +1803,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C109">
@@ -1907,7 +1907,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C117">
@@ -1933,7 +1933,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1977,7 +1977,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C122">
@@ -2172,7 +2172,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2281,7 +2281,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C145">
@@ -2434,7 +2434,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C156">
@@ -2577,7 +2577,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C167">
@@ -2668,7 +2668,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C174">
@@ -2785,12 +2785,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C183">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C186">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C187">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C193">
@@ -2959,7 +2959,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C196">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C200">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C205">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C211">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C212">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C221">
@@ -3375,7 +3375,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C228">
@@ -3388,7 +3388,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>San José del Rincón</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C229">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C238">
@@ -3596,7 +3596,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C245">
@@ -3661,7 +3661,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C250">
@@ -3674,7 +3674,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C251">
@@ -3713,7 +3713,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C254">
@@ -3726,7 +3726,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C255">
@@ -3835,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C263">
@@ -3848,7 +3848,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C264">
@@ -3939,7 +3939,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C271">
@@ -3991,7 +3991,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C275">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C281">
@@ -4147,7 +4147,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C287">
@@ -4173,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C289">
@@ -4186,7 +4186,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C290">
@@ -4199,7 +4199,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C291">
@@ -4225,7 +4225,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C293">
@@ -4277,7 +4277,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C297">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C303">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C305">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C309">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C310">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C313">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C314">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C315">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C316">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C320">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C321">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C324">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C331">
@@ -4737,7 +4737,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C332">
@@ -4750,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C333">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C335">
@@ -4919,7 +4919,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C346">
@@ -4984,7 +4984,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C351">
@@ -4997,7 +4997,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C352">
@@ -5010,7 +5010,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C353">
@@ -5036,7 +5036,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C355">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C362">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C363">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C366">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C368">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C370">
@@ -5275,7 +5275,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C373">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C377">
@@ -5340,7 +5340,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C378">
@@ -5366,7 +5366,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C380">
@@ -5379,7 +5379,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C381">
@@ -5431,7 +5431,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C385">
@@ -5457,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C387">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C389">
@@ -5496,7 +5496,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C390">
@@ -5535,7 +5535,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C393">
@@ -5548,7 +5548,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C394">
@@ -5561,7 +5561,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C395">
@@ -5587,7 +5587,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C397">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C398">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C401">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C402">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C406">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C409">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C410">
@@ -5813,7 +5813,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C414">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C424">
@@ -5995,7 +5995,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C428">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C429">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C432">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C436">
@@ -6112,7 +6112,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C437">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C446">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C447">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C450">
@@ -6294,7 +6294,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C451">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C453">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C454">
@@ -6359,7 +6359,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C456">
@@ -6372,7 +6372,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C457">
@@ -6411,7 +6411,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C460">
@@ -6450,7 +6450,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C463">
@@ -6476,7 +6476,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C465">
@@ -6567,7 +6567,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C472">
@@ -6580,7 +6580,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C473">
@@ -6632,7 +6632,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C477">
@@ -6645,7 +6645,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C478">
@@ -6671,7 +6671,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -6832,7 +6832,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C492">
@@ -7521,7 +7521,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C545">
@@ -7799,7 +7799,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C566">
@@ -7942,7 +7942,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C577">
@@ -8020,7 +8020,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C583">
@@ -8194,7 +8194,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C596">
@@ -8394,7 +8394,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C611">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C614">
@@ -8529,7 +8529,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C621">
@@ -8542,7 +8542,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C622">
@@ -8581,7 +8581,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C625">
@@ -8620,7 +8620,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C628">
@@ -8646,7 +8646,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C630">
@@ -8659,7 +8659,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C631">
@@ -8672,7 +8672,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C632">
@@ -8685,7 +8685,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C633">
@@ -8698,7 +8698,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C634">
@@ -8724,7 +8724,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C636">
@@ -8802,7 +8802,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C642">
@@ -8815,7 +8815,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C643">
@@ -8828,7 +8828,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C644">
@@ -8841,7 +8841,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C645">
@@ -8854,7 +8854,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C646">
@@ -8919,7 +8919,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C651">
@@ -9075,7 +9075,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C663">
@@ -9166,7 +9166,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C670">
@@ -9608,7 +9608,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C704">
@@ -9699,7 +9699,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C711">
@@ -9881,7 +9881,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C725">
@@ -9894,7 +9894,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C726">
@@ -10089,7 +10089,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C741">
@@ -10193,7 +10193,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C749">
@@ -10544,7 +10544,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C776">
@@ -10635,7 +10635,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C783">
@@ -10674,7 +10674,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C786">
@@ -10687,7 +10687,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C787">
@@ -10700,7 +10700,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C788">
@@ -10713,7 +10713,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C789">
@@ -10726,7 +10726,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C790">
@@ -10739,7 +10739,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C791">
@@ -10778,7 +10778,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C794">
@@ -10791,7 +10791,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C795">
@@ -10804,7 +10804,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C796">
@@ -10817,7 +10817,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C797">
@@ -10830,7 +10830,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C798">
@@ -10856,7 +10856,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C800">
@@ -11069,7 +11069,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C816">
@@ -11303,7 +11303,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C834">
@@ -11316,7 +11316,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C835">
@@ -11368,7 +11368,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C839">
@@ -11407,7 +11407,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C842">
@@ -11576,7 +11576,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C855">
@@ -11732,7 +11732,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C867">
@@ -11797,7 +11797,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C872">
@@ -11810,7 +11810,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C873">
@@ -11914,7 +11914,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C881">
@@ -11979,7 +11979,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C886">
@@ -11992,7 +11992,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C887">
@@ -12044,7 +12044,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C891">
@@ -12322,7 +12322,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C912">
@@ -12348,7 +12348,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C914">
@@ -12374,7 +12374,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C916">
@@ -12426,7 +12426,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C920">
@@ -12592,7 +12592,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C932">
@@ -12722,7 +12722,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C942">
@@ -12813,7 +12813,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C949">
@@ -12826,7 +12826,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C950">
@@ -12839,7 +12839,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C951">
@@ -12852,7 +12852,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C952">
@@ -13187,7 +13187,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>San Miguel de Horcasitas</t>
+          <t>San Miguel De Horcasitas</t>
         </is>
       </c>
       <c r="C977">
@@ -13335,7 +13335,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C988">
@@ -13561,7 +13561,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1005">
@@ -13644,7 +13644,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1011">
@@ -13748,7 +13748,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1019">
@@ -13761,7 +13761,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1020">
@@ -13774,7 +13774,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1021">
@@ -13813,7 +13813,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1024">
@@ -13826,7 +13826,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1025">
@@ -13878,7 +13878,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1029">
@@ -13969,7 +13969,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr">
@@ -14065,7 +14065,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1043">
@@ -14104,7 +14104,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1046">
@@ -14208,7 +14208,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1054">
@@ -14260,7 +14260,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1058">
@@ -14325,7 +14325,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1063">
@@ -14390,7 +14390,7 @@
     <row r="1068">
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1068">
@@ -14533,7 +14533,7 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1079">
@@ -14546,7 +14546,7 @@
     <row r="1080">
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1080">
@@ -14585,7 +14585,7 @@
     <row r="1083">
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1083">
@@ -14598,7 +14598,7 @@
     <row r="1084">
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1084">
@@ -14611,7 +14611,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1085">
@@ -14728,7 +14728,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1094">
@@ -14780,7 +14780,7 @@
     <row r="1098">
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1098">
@@ -14819,7 +14819,7 @@
     <row r="1101">
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1101">
@@ -14871,7 +14871,7 @@
     <row r="1105">
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1105">
@@ -14936,7 +14936,7 @@
     <row r="1110">
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1110">
@@ -14949,7 +14949,7 @@
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1111">
@@ -15053,7 +15053,7 @@
     <row r="1119">
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1119">
@@ -15092,7 +15092,7 @@
     <row r="1122">
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1122">
@@ -15196,7 +15196,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1130">
@@ -15287,7 +15287,7 @@
     <row r="1137">
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1137">
@@ -15469,7 +15469,7 @@
     <row r="1151">
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1151">
@@ -15599,7 +15599,7 @@
     <row r="1161">
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1161">
@@ -15856,7 +15856,7 @@
     <row r="1180">
       <c r="B1180" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1180">
@@ -15973,7 +15973,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1189">
@@ -16064,7 +16064,7 @@
     <row r="1196">
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1196">
@@ -16077,7 +16077,7 @@
     <row r="1197">
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1197">
@@ -16181,7 +16181,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1205">
@@ -16194,7 +16194,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1206">
@@ -16207,7 +16207,7 @@
     <row r="1207">
       <c r="B1207" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1207">
@@ -16285,7 +16285,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1213">
@@ -16293,41 +16293,6 @@
       </c>
       <c r="D1213">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
